--- a/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_DateBeforeDays_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_DateBeforeDays_Test.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="91">
   <si>
     <t>ModuleName</t>
   </si>
@@ -280,12 +280,28 @@
   </si>
   <si>
     <t xml:space="preserve"> ET_ETRS_Notify </t>
+  </si>
+  <si>
+    <t>26-05-2024</t>
+  </si>
+  <si>
+    <t>26-05-2024 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>05:00:00 PM</t>
+  </si>
+  <si>
+    <t>ET363</t>
+  </si>
+  <si>
+    <t>ET364</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -641,33 +657,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="9.1796875" style="1"/>
-    <col min="17" max="17" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.1796875" style="1"/>
-    <col min="20" max="20" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9.1796875" style="1"/>
-    <col min="24" max="24" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="25.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="16.81640625"/>
+    <col min="10" max="16" style="1" width="9.1796875"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="14.1796875"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="19" max="19" style="1" width="9.1796875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="23.0"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="8.0"/>
+    <col min="22" max="23" style="1" width="9.1796875"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="18.81640625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="16.26953125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="33.54296875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="12.81640625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="19.81640625"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="12.26953125"/>
+    <col min="34" max="16384" style="1" width="9.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -811,8 +827,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>74</v>
+      <c r="K2" t="s" s="1">
+        <v>86</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -820,11 +836,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>81</v>
+      <c r="N2" t="s" s="1">
+        <v>87</v>
+      </c>
+      <c r="O2" t="s" s="1">
+        <v>88</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -871,8 +887,8 @@
       <c r="AF2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>73</v>
+      <c r="AG2" t="s" s="1">
+        <v>90</v>
       </c>
       <c r="AH2" s="1">
         <v>5</v>
@@ -883,7 +899,7 @@
       <c r="AJ2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AK2" t="s" s="1">
         <v>79</v>
       </c>
     </row>
@@ -906,24 +922,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" customWidth="true" width="21.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7265625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.81640625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="24.81640625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.26953125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1067,8 +1083,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>74</v>
+      <c r="K2" t="s" s="0">
+        <v>86</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1076,11 +1092,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" t="s">
-        <v>81</v>
+      <c r="N2" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>88</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1129,10 +1145,10 @@
       <c r="AF2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="0">
         <v>5</v>
       </c>
       <c r="AI2" s="6" t="s">
@@ -1161,14 +1177,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.26953125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1312,8 +1328,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>74</v>
+      <c r="K2" t="s" s="0">
+        <v>86</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1321,11 +1337,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" t="s">
-        <v>81</v>
+      <c r="N2" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>88</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1374,10 +1390,10 @@
       <c r="AF2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="0">
         <v>5</v>
       </c>
       <c r="AI2" s="6" t="s">
@@ -1406,16 +1422,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.1796875"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="9.08984375"/>
+    <col min="35" max="36" bestFit="true" customWidth="true" width="11.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1559,7 +1575,7 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>68</v>
       </c>
       <c r="L2" s="1">
@@ -1568,10 +1584,10 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="s" s="0">
         <v>67</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1621,10 +1637,10 @@
       <c r="AF2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="0">
         <v>5</v>
       </c>
       <c r="AI2" s="6" t="s">

--- a/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_DateBeforeDays_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_DateBeforeDays_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
   <si>
     <t>ModuleName</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>ET364</t>
+  </si>
+  <si>
+    <t>ET367</t>
   </si>
 </sst>
 </file>
@@ -888,7 +891,7 @@
         <v>85</v>
       </c>
       <c r="AG2" t="s" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH2" s="1">
         <v>5</v>
@@ -1576,7 +1579,7 @@
         <v>31</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1585,10 +1588,10 @@
         <v>32</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>

--- a/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_DateBeforeDays_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_DateBeforeDays_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="94">
   <si>
     <t>ModuleName</t>
   </si>
@@ -298,6 +298,12 @@
   </si>
   <si>
     <t>ET367</t>
+  </si>
+  <si>
+    <t>30-05-2024</t>
+  </si>
+  <si>
+    <t>30-05-2024 03:28:52 PM</t>
   </si>
 </sst>
 </file>
@@ -1579,7 +1585,7 @@
         <v>31</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1588,7 +1594,7 @@
         <v>32</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O2" t="s" s="0">
         <v>88</v>

--- a/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_DateBeforeDays_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_DateBeforeDays_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="84">
   <si>
     <t>ModuleName</t>
   </si>
@@ -225,30 +225,12 @@
     <t>EditSaveName</t>
   </si>
   <si>
-    <t>02:35:55 PM</t>
-  </si>
-  <si>
-    <t>04-05-2024</t>
-  </si>
-  <si>
-    <t>04-05-2024 05:29:49 PM</t>
-  </si>
-  <si>
     <t>ET163</t>
   </si>
   <si>
     <t>ET164</t>
   </si>
   <si>
-    <t>tskNT_ExecuteTask_DateBeforeDays</t>
-  </si>
-  <si>
-    <t>ET197</t>
-  </si>
-  <si>
-    <t>11-05-2024</t>
-  </si>
-  <si>
     <t>TimeHour</t>
   </si>
   <si>
@@ -264,15 +246,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>08-05-2024 11:36:56 AM</t>
-  </si>
-  <si>
-    <t>05:00:00 AM</t>
-  </si>
-  <si>
-    <t>08-05-2024 11:41:20 AM</t>
-  </si>
-  <si>
     <t>wf_ET_ETRS_Notifications</t>
   </si>
   <si>
@@ -291,12 +264,6 @@
     <t>05:00:00 PM</t>
   </si>
   <si>
-    <t>ET363</t>
-  </si>
-  <si>
-    <t>ET364</t>
-  </si>
-  <si>
     <t>ET367</t>
   </si>
   <si>
@@ -304,13 +271,15 @@
   </si>
   <si>
     <t>30-05-2024 03:28:52 PM</t>
+  </si>
+  <si>
+    <t>ET_DateBeforeDays</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -660,39 +629,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:AA2"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="13.7265625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="25.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="14.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="20.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="16.81640625"/>
-    <col min="10" max="16" style="1" width="9.1796875"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="14.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="11.0"/>
-    <col min="19" max="19" style="1" width="9.1796875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="23.0"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="8.0"/>
-    <col min="22" max="23" style="1" width="9.1796875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="18.81640625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="20.0"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="16.26953125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="33.54296875"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="12.81640625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="20.0"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="11.0"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="19.81640625"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="12.26953125"/>
-    <col min="34" max="16384" style="1" width="9.1796875"/>
+    <col min="1" max="1" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="9.1796875" style="1"/>
+    <col min="17" max="17" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.1796875" style="1"/>
+    <col min="20" max="20" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.1796875" style="1"/>
+    <col min="24" max="24" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -796,13 +765,13 @@
         <v>49</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.35">
@@ -810,7 +779,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -836,8 +805,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s" s="1">
-        <v>86</v>
+      <c r="K2" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -845,11 +814,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s" s="1">
-        <v>87</v>
-      </c>
-      <c r="O2" t="s" s="1">
-        <v>88</v>
+      <c r="N2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -879,13 +848,13 @@
         <v>48</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>24</v>
@@ -894,22 +863,22 @@
         <v>46</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG2" t="s" s="1">
-        <v>91</v>
+        <v>76</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="AH2" s="1">
         <v>5</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK2" t="s" s="1">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -926,29 +895,29 @@
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
-    <col min="6" max="6" customWidth="true" width="21.453125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.81640625"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7265625"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="23.81640625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="24.81640625"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="16.26953125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="19.81640625"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.26953125"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1052,13 +1021,13 @@
         <v>49</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
@@ -1066,7 +1035,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1092,8 +1061,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>86</v>
+      <c r="K2" t="s">
+        <v>77</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1101,11 +1070,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>88</v>
+      <c r="N2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" t="s">
+        <v>79</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1135,13 +1104,13 @@
         <v>48</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1152,19 +1121,19 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG2" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="AH2" s="0">
+        <v>76</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH2">
         <v>5</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1181,19 +1150,19 @@
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2"/>
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.26953125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.81640625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1297,13 +1266,13 @@
         <v>49</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
@@ -1311,7 +1280,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1337,8 +1306,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>86</v>
+      <c r="K2" t="s">
+        <v>77</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1346,11 +1315,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>88</v>
+      <c r="N2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" t="s">
+        <v>79</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1380,13 +1349,13 @@
         <v>48</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="Z2" s="7" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1397,19 +1366,19 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG2" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="AH2" s="0">
+        <v>76</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH2">
         <v>5</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1425,22 +1394,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.453125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.1796875"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="35" max="36" bestFit="true" customWidth="true" width="11.7265625"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1544,13 +1513,13 @@
         <v>49</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
@@ -1558,7 +1527,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1584,8 +1553,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>92</v>
+      <c r="K2" t="s">
+        <v>81</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1593,11 +1562,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>88</v>
+      <c r="N2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" t="s">
+        <v>79</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1627,13 +1596,13 @@
         <v>48</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="Z2" s="7" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1644,19 +1613,19 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG2" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="AH2" s="0">
+        <v>76</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH2">
         <v>5</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_DateBeforeDays_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_DateBeforeDays_Test.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="88">
   <si>
     <t>ModuleName</t>
   </si>
@@ -274,12 +274,25 @@
   </si>
   <si>
     <t>ET_DateBeforeDays</t>
+  </si>
+  <si>
+    <t>26-07-2024</t>
+  </si>
+  <si>
+    <t>26-07-2024 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>05:00:00PM</t>
+  </si>
+  <si>
+    <t>ET2771</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -635,33 +648,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="9.1796875" style="1"/>
-    <col min="17" max="17" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.1796875" style="1"/>
-    <col min="20" max="20" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9.1796875" style="1"/>
-    <col min="24" max="24" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="25.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="16.81640625"/>
+    <col min="10" max="16" style="1" width="9.1796875"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="14.1796875"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="19" max="19" style="1" width="9.1796875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="23.0"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="8.0"/>
+    <col min="22" max="23" style="1" width="9.1796875"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="18.81640625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="16.26953125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="33.54296875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="12.81640625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="19.81640625"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="12.26953125"/>
+    <col min="34" max="16384" style="1" width="9.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -805,8 +818,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>77</v>
+      <c r="K2" t="s" s="1">
+        <v>84</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -814,11 +827,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>79</v>
+      <c r="N2" t="s" s="1">
+        <v>85</v>
+      </c>
+      <c r="O2" t="s" s="1">
+        <v>86</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -865,8 +878,8 @@
       <c r="AF2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>80</v>
+      <c r="AG2" t="s" s="1">
+        <v>87</v>
       </c>
       <c r="AH2" s="1">
         <v>5</v>
@@ -877,7 +890,7 @@
       <c r="AJ2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AK2" t="s" s="1">
         <v>73</v>
       </c>
     </row>
@@ -900,24 +913,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" customWidth="true" width="21.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7265625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.81640625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="24.81640625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.26953125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1061,8 +1074,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>77</v>
+      <c r="K2" t="s" s="0">
+        <v>84</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1070,11 +1083,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O2" t="s">
-        <v>79</v>
+      <c r="N2" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>86</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1123,10 +1136,10 @@
       <c r="AF2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="0">
         <v>5</v>
       </c>
       <c r="AI2" s="6" t="s">
@@ -1155,14 +1168,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.26953125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1306,8 +1319,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>77</v>
+      <c r="K2" t="s" s="0">
+        <v>84</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1315,11 +1328,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O2" t="s">
-        <v>79</v>
+      <c r="N2" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>86</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1368,10 +1381,10 @@
       <c r="AF2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="0">
         <v>5</v>
       </c>
       <c r="AI2" s="6" t="s">
@@ -1400,16 +1413,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.1796875"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="9.08984375"/>
+    <col min="35" max="36" bestFit="true" customWidth="true" width="11.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1553,8 +1566,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>81</v>
+      <c r="K2" t="s" s="0">
+        <v>84</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1562,11 +1575,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" t="s">
-        <v>79</v>
+      <c r="N2" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>86</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1615,10 +1628,10 @@
       <c r="AF2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="0">
         <v>5</v>
       </c>
       <c r="AI2" s="6" t="s">
